--- a/templates/daily.xlsx
+++ b/templates/daily.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="131">
   <si>
     <t>Число</t>
   </si>
@@ -283,14 +283,141 @@
   </si>
   <si>
     <t>Підпис</t>
+  </si>
+  <si>
+    <t>{{index}}</t>
+  </si>
+  <si>
+    <t>{{district}}</t>
+  </si>
+  <si>
+    <t>{{coordinates}}</t>
+  </si>
+  <si>
+    <t>{{region}}</t>
+  </si>
+  <si>
+    <t>{{city}}</t>
+  </si>
+  <si>
+    <t>{{height}}</t>
+  </si>
+  <si>
+    <t>{{head}}</t>
+  </si>
+  <si>
+    <t>{{creator}}</t>
+  </si>
+  <si>
+    <t>{{observation_begin_g}}</t>
+  </si>
+  <si>
+    <t>{{ice_cover}}</t>
+  </si>
+  <si>
+    <t>{{snow_melting}}</t>
+  </si>
+  <si>
+    <t>{{water_freezing}}</t>
+  </si>
+  <si>
+    <t>{{observation_end_g}}</t>
+  </si>
+  <si>
+    <t>{{ice_clean}}</t>
+  </si>
+  <si>
+    <t>{{observation_begin_w}}</t>
+  </si>
+  <si>
+    <t>{{observation_end_w}}</t>
+  </si>
+  <si>
+    <t>{{square_1}}</t>
+  </si>
+  <si>
+    <t>{{depth_1}}</t>
+  </si>
+  <si>
+    <t>{{external_height_1}}</t>
+  </si>
+  <si>
+    <t>{{internal_height_1}}</t>
+  </si>
+  <si>
+    <t>{{square_2}}</t>
+  </si>
+  <si>
+    <t>{{depth_2}}</t>
+  </si>
+  <si>
+    <t>{{external_height_2}}</t>
+  </si>
+  <si>
+    <t>{{internal_height_2}}</t>
+  </si>
+  <si>
+    <t>{{square_3}}</t>
+  </si>
+  <si>
+    <t>{{depth_3}}</t>
+  </si>
+  <si>
+    <t>{{external_height_3}}</t>
+  </si>
+  <si>
+    <t>{{internal_height_3}}</t>
+  </si>
+  <si>
+    <t>{{square_4}}</t>
+  </si>
+  <si>
+    <t>{{depth_4}}</t>
+  </si>
+  <si>
+    <t>{{external_height_4}}</t>
+  </si>
+  <si>
+    <t>{{internal_height_4}}</t>
+  </si>
+  <si>
+    <t>№ {{rg_number}}</t>
+  </si>
+  <si>
+    <t>{{rg_volume}}</t>
+  </si>
+  <si>
+    <t>{{rg_range}}</t>
+  </si>
+  <si>
+    <t>{{checker}}</t>
+  </si>
+  <si>
+    <t>{{creation_date}}</t>
+  </si>
+  <si>
+    <t>{{comments}}</t>
+  </si>
+  <si>
+    <t>{{tb:toolsTable.toolName}}</t>
+  </si>
+  <si>
+    <t>{{tb:toolsTable.toolNumber}}</t>
+  </si>
+  <si>
+    <t>{{tb:toolsTable.toolCheck}}</t>
+  </si>
+  <si>
+    <t>{{tb:toolsTable.toolTest}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -352,7 +479,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -537,15 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -558,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -583,9 +701,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -602,73 +717,133 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -678,95 +853,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,124 +1154,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="11.7109375" customWidth="1"/>
+    <col min="1" max="21" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J5" s="36" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="6"/>
-      <c r="Q5" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="42" t="s">
+    <row r="7" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="6"/>
-      <c r="N7" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="70"/>
-      <c r="S7" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" s="70"/>
-      <c r="U7" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="73"/>
-    </row>
-    <row r="8" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="6"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="68"/>
-    </row>
-    <row r="9" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="L9" s="6"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="68"/>
-    </row>
-    <row r="10" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1196,92 +1244,58 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="L10" s="6"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="61"/>
-    </row>
-    <row r="11" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="L11" s="6"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="58"/>
-    </row>
-    <row r="12" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="L12" s="6"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="58"/>
-    </row>
-    <row r="13" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="L13" s="6"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="58"/>
-    </row>
-    <row r="14" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="24" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="8"/>
@@ -1289,17 +1303,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="L14" s="6"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="58"/>
-    </row>
-    <row r="15" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1310,20 +1315,11 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="L15" s="6"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="58"/>
-    </row>
-    <row r="16" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1331,587 +1327,504 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="L16" s="6"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="58"/>
-    </row>
-    <row r="17" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="6"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="58"/>
-    </row>
-    <row r="18" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="14" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
+      <c r="H18" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
       <c r="L18" s="6"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="58"/>
-    </row>
-    <row r="19" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="14" t="s">
+      <c r="C19" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
+      <c r="I19" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="6"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="58"/>
-    </row>
-    <row r="20" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
       <c r="L20" s="6"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="58"/>
-    </row>
-    <row r="21" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="15"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="58"/>
-    </row>
-    <row r="22" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="15"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="58"/>
-    </row>
-    <row r="23" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C22" s="56"/>
+      <c r="D22" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="15"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="58"/>
-    </row>
-    <row r="24" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="56"/>
+      <c r="D23" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="15"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="58"/>
-    </row>
-    <row r="25" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="28" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="31" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="15"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="58"/>
-    </row>
-    <row r="26" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="J25" s="47"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="28" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28" t="s">
+      <c r="D26" s="41"/>
+      <c r="E26" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="17"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="58"/>
-    </row>
-    <row r="27" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H26" s="41"/>
+      <c r="I26" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="41"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="15"/>
-    </row>
-    <row r="28" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="28" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28" t="s">
+      <c r="D28" s="41"/>
+      <c r="E28" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="15"/>
-      <c r="N28" t="s">
-        <v>84</v>
-      </c>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-    </row>
-    <row r="29" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H28" s="41"/>
+      <c r="I28" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="41"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="15"/>
-      <c r="N29" t="s">
-        <v>85</v>
-      </c>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-    </row>
-    <row r="30" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="28" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28" t="s">
+      <c r="D30" s="41"/>
+      <c r="E30" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="15"/>
-      <c r="N30" t="s">
-        <v>86</v>
-      </c>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-    </row>
-    <row r="31" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H30" s="41"/>
+      <c r="I30" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="41"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="15"/>
-      <c r="N31" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-    </row>
-    <row r="32" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="28" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="15"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="41"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="15"/>
-      <c r="N34" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="O34" s="27"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="51" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="51" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="51" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="49" t="s">
+      <c r="H35" s="50"/>
+      <c r="I35" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="15"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="19" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="15"/>
-    </row>
-    <row r="37" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K36" s="17"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:23" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="43"/>
+      <c r="G37" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="43"/>
+      <c r="I38" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="43"/>
+      <c r="I39" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>116</v>
+      </c>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="22"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="43"/>
+      <c r="I40" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="L40" s="6"/>
-      <c r="N40" t="s">
-        <v>62</v>
-      </c>
-      <c r="T40" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="41" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="16"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="15"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:23" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="44"/>
+      <c r="F42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="I42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26" t="s">
+      <c r="J42" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" s="20" t="s">
         <v>79</v>
       </c>
       <c r="L42" s="6"/>
@@ -1923,38 +1836,38 @@
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34" t="s">
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="44" t="s">
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="34" t="s">
+      <c r="I45" s="68"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34" t="s">
+      <c r="L45" s="66"/>
+      <c r="M45" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34" t="s">
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
       <c r="V45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1962,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="120" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="119.25" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
         <v>8</v>
@@ -2098,87 +2011,451 @@
         <v>19</v>
       </c>
     </row>
+    <row r="49" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E49" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="51" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B51" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" s="28"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="35"/>
+      <c r="D52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="40"/>
+      <c r="G54" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="40"/>
+      <c r="I54" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" s="40"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="32"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="E70" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="J73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="65"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="65"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="65"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="65"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="65"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+    </row>
   </sheetData>
-  <mergeCells count="129">
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="U7:V9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="N7:P9"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="S7:T9"/>
+  <mergeCells count="135">
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="E89:F91"/>
+    <mergeCell ref="G89:H91"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I89:J91"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:Q45"/>
-    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="B89:D91"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="J5:K7"/>
     <mergeCell ref="E7:G7"/>
@@ -2213,22 +2490,29 @@
     <mergeCell ref="E28:F29"/>
     <mergeCell ref="G28:H29"/>
     <mergeCell ref="I28:J29"/>
-    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
     <mergeCell ref="C35:D36"/>
     <mergeCell ref="E35:F36"/>
     <mergeCell ref="G35:H36"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="C32:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2239,7 +2523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:J40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
